--- a/input/Data.xlsx
+++ b/input/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Nivedita</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Kulkarni</t>
   </si>
 </sst>
 </file>
@@ -371,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -405,6 +414,17 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
